--- a/output/2022_roster_v1.xlsx
+++ b/output/2022_roster_v1.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Intern Roster\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC41D333-88BF-4210-A6E0-8A4292FE538B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFF1961-DA64-4E7E-8483-DF36329EAB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24900" windowHeight="15120" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24900" windowHeight="15120" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Year" sheetId="1" r:id="rId1"/>
     <sheet name="Weekends" sheetId="2" r:id="rId2"/>
-    <sheet name="ADOs" sheetId="3" r:id="rId3"/>
-    <sheet name="TIL" sheetId="4" r:id="rId4"/>
-    <sheet name="Late_Shift" sheetId="5" r:id="rId5"/>
+    <sheet name="temp" sheetId="6" r:id="rId3"/>
+    <sheet name="ADOs" sheetId="3" r:id="rId4"/>
+    <sheet name="TIL" sheetId="4" r:id="rId5"/>
+    <sheet name="Late_Shift" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="91">
   <si>
     <t>IP</t>
   </si>
@@ -297,6 +298,12 @@
   <si>
     <t>Xmas Observ</t>
   </si>
+  <si>
+    <t>anzac day</t>
+  </si>
+  <si>
+    <t>Melb Cup</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -580,6 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F071B-7C54-4CC5-9ACD-3D06464F456D}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1253,9 @@
       <c r="Q3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -3684,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F8D254-BC4A-41A6-A0EC-AD3F8E4094BA}">
   <dimension ref="A1:DK6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="DB11" sqref="DB11"/>
+    <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
+      <selection activeCell="CP14" sqref="CP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4399,6 +4409,9 @@
       </c>
       <c r="CF3" s="56" t="s">
         <v>85</v>
+      </c>
+      <c r="CQ3" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="DH3" s="56" t="s">
         <v>87</v>
@@ -5377,6 +5390,2237 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05444755-A9F1-4735-AFE4-B97FFE6F47DF}">
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="55">
+        <v>44569</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1">
+        <f>D1-1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>E1-1</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f>H1*3</f>
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="55">
+        <v>44570</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2">
+        <f t="shared" ref="C2:C59" si="0">D2-1</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D6" si="1">E2-1</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E59" si="2">H2*3</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
+        <v>44576</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
+        <v>44577</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
+        <v>44583</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
+        <v>44584</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>44590</v>
+      </c>
+      <c r="C7" s="56">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="56">
+        <f t="shared" ref="D7:D64" si="3">E7-1</f>
+        <v>20</v>
+      </c>
+      <c r="E7" s="56">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
+        <v>44591</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
+        <v>44597</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
+        <v>44598</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
+        <v>44604</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
+        <v>44605</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
+        <v>44611</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <v>44612</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
+        <v>44618</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
+        <v>44619</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>44625</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
+        <v>44626</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
+        <v>44632</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
+        <v>44633</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>44639</v>
+      </c>
+      <c r="C21" s="56">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="56">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E21" s="56">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="55">
+        <v>44640</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
+        <v>44646</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>44647</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="55">
+        <v>44653</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="55">
+        <v>44654</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <v>44660</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="H27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="55">
+        <v>44661</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57">
+        <v>44667</v>
+      </c>
+      <c r="C29" s="56">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D29" s="56">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="H29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="55">
+        <v>44668</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57">
+        <v>44674</v>
+      </c>
+      <c r="C31" s="56">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D31" s="56">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="E31" s="56">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="H31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="55">
+        <v>44675</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57">
+        <v>44681</v>
+      </c>
+      <c r="C33" s="56">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D33" s="56">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E33" s="56">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="55">
+        <v>44682</v>
+      </c>
+      <c r="B34" s="56"/>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="55">
+        <v>44688</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="55">
+        <v>44689</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="H36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="55">
+        <v>44695</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="H37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="55">
+        <v>44696</v>
+      </c>
+      <c r="B38" s="56"/>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="H38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="55">
+        <v>44702</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="H39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="55">
+        <v>44703</v>
+      </c>
+      <c r="B40" s="56"/>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="55">
+        <v>44709</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="55">
+        <v>44710</v>
+      </c>
+      <c r="B42" s="56"/>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="H42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="55">
+        <v>44716</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="55">
+        <v>44717</v>
+      </c>
+      <c r="B44" s="56"/>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="H44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="55">
+        <v>44723</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="H45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="55">
+        <v>44724</v>
+      </c>
+      <c r="B46" s="56"/>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="H46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="57">
+        <v>44730</v>
+      </c>
+      <c r="C47" s="56">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="D47" s="56">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="E47" s="56">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="H47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="55">
+        <v>44731</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="H48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="55">
+        <v>44737</v>
+      </c>
+      <c r="B49" s="56"/>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="H49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="55">
+        <v>44738</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="55">
+        <v>44744</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="H51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="55">
+        <v>44745</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="H52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="55">
+        <v>44751</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="H53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="55">
+        <v>44752</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="H54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="55">
+        <v>44758</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="H55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="55">
+        <v>44759</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="H56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="55">
+        <v>44765</v>
+      </c>
+      <c r="B57" s="56"/>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="H57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="55">
+        <v>44766</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="H58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="55">
+        <v>44772</v>
+      </c>
+      <c r="B59" s="56"/>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="H59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="55">
+        <v>44773</v>
+      </c>
+      <c r="B60" s="56"/>
+      <c r="C60">
+        <f t="shared" ref="C60:C104" si="4">D60-1</f>
+        <v>178</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E104" si="5">H60*3</f>
+        <v>180</v>
+      </c>
+      <c r="H60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="55">
+        <v>44779</v>
+      </c>
+      <c r="B61" s="56"/>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="H61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="55">
+        <v>44780</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="H62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="55">
+        <v>44786</v>
+      </c>
+      <c r="B63" s="56"/>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="H63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="55">
+        <v>44787</v>
+      </c>
+      <c r="B64" s="56"/>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="H64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="55">
+        <v>44793</v>
+      </c>
+      <c r="B65" s="56"/>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D104" si="6">E65-1</f>
+        <v>194</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="H65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="55">
+        <v>44794</v>
+      </c>
+      <c r="B66" s="56"/>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="H66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="55">
+        <v>44800</v>
+      </c>
+      <c r="B67" s="56"/>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="5"/>
+        <v>201</v>
+      </c>
+      <c r="H67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="55">
+        <v>44801</v>
+      </c>
+      <c r="B68" s="56"/>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="H68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="55">
+        <v>44807</v>
+      </c>
+      <c r="B69" s="56"/>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>207</v>
+      </c>
+      <c r="H69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="55">
+        <v>44808</v>
+      </c>
+      <c r="B70" s="56"/>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="H70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="55">
+        <v>44814</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>213</v>
+      </c>
+      <c r="H71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="55">
+        <v>44815</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>215</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="H72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="55">
+        <v>44821</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>217</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>219</v>
+      </c>
+      <c r="H73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="55">
+        <v>44822</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="H74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="55">
+        <v>44828</v>
+      </c>
+      <c r="B75" s="56"/>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="H75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="55">
+        <v>44829</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>227</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>228</v>
+      </c>
+      <c r="H76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="57">
+        <v>44835</v>
+      </c>
+      <c r="C77" s="56">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="D77" s="56">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="E77" s="56">
+        <f t="shared" si="5"/>
+        <v>231</v>
+      </c>
+      <c r="H77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="55">
+        <v>44836</v>
+      </c>
+      <c r="B78" s="56"/>
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="H78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="55">
+        <v>44842</v>
+      </c>
+      <c r="B79" s="56"/>
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>236</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="H79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="55">
+        <v>44843</v>
+      </c>
+      <c r="B80" s="56"/>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>239</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="H80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="55">
+        <v>44849</v>
+      </c>
+      <c r="B81" s="56"/>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="H81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="55">
+        <v>44850</v>
+      </c>
+      <c r="B82" s="56"/>
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="H82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="55">
+        <v>44856</v>
+      </c>
+      <c r="B83" s="56"/>
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="H83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="55">
+        <v>44857</v>
+      </c>
+      <c r="B84" s="56"/>
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+      <c r="H84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="55">
+        <v>44863</v>
+      </c>
+      <c r="B85" s="56"/>
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="H85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="55">
+        <v>44864</v>
+      </c>
+      <c r="B86" s="56"/>
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="H86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="57">
+        <v>44870</v>
+      </c>
+      <c r="C87" s="56">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="D87" s="56">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="E87" s="56">
+        <f t="shared" si="5"/>
+        <v>261</v>
+      </c>
+      <c r="H87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="55">
+        <v>44871</v>
+      </c>
+      <c r="B88" s="56"/>
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>264</v>
+      </c>
+      <c r="H88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="55">
+        <v>44877</v>
+      </c>
+      <c r="B89" s="56"/>
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>267</v>
+      </c>
+      <c r="H89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="55">
+        <v>44878</v>
+      </c>
+      <c r="B90" s="56"/>
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="H90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="55">
+        <v>44884</v>
+      </c>
+      <c r="B91" s="56"/>
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>273</v>
+      </c>
+      <c r="H91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="55">
+        <v>44885</v>
+      </c>
+      <c r="B92" s="56"/>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>276</v>
+      </c>
+      <c r="H92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="55">
+        <v>44891</v>
+      </c>
+      <c r="B93" s="56"/>
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>279</v>
+      </c>
+      <c r="H93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="55">
+        <v>44892</v>
+      </c>
+      <c r="B94" s="56"/>
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>281</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="H94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="55">
+        <v>44898</v>
+      </c>
+      <c r="B95" s="56"/>
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>284</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>285</v>
+      </c>
+      <c r="H95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="55">
+        <v>44899</v>
+      </c>
+      <c r="B96" s="56"/>
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>287</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="H96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="55">
+        <v>44905</v>
+      </c>
+      <c r="B97" s="56"/>
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="H97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="55">
+        <v>44906</v>
+      </c>
+      <c r="B98" s="56"/>
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>294</v>
+      </c>
+      <c r="H98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="55">
+        <v>44912</v>
+      </c>
+      <c r="B99" s="56"/>
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="H99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="55">
+        <v>44913</v>
+      </c>
+      <c r="B100" s="56"/>
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>299</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="55">
+        <v>44919</v>
+      </c>
+      <c r="B101" s="56"/>
+      <c r="C101">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>302</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="H101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="55">
+        <v>44920</v>
+      </c>
+      <c r="B102" s="56"/>
+      <c r="C102">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>305</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+      <c r="H102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="57">
+        <v>44926</v>
+      </c>
+      <c r="C103" s="56">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="D103" s="56">
+        <f t="shared" si="6"/>
+        <v>308</v>
+      </c>
+      <c r="E103" s="56">
+        <f t="shared" si="5"/>
+        <v>309</v>
+      </c>
+      <c r="H103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="55">
+        <v>44927</v>
+      </c>
+      <c r="B104" s="56"/>
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="6"/>
+        <v>311</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="H104">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C105:C218">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219:C332">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C104">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A6C54F-2C06-4951-8B32-0F9BB2634F3F}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
@@ -6755,7 +8999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A005468D-91E0-47FC-BDA7-FFF9A087D03B}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
@@ -8458,7 +10702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78327BA7-5435-4BA0-B45A-DA59E7FE4FD7}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
